--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middellaag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middellaag.xlsx
@@ -400,25 +400,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5826859826878467</v>
+        <v>0.5817745553736098</v>
       </c>
       <c r="C2">
-        <v>0.627429013416762</v>
+        <v>0.6247489020384521</v>
       </c>
       <c r="D2">
-        <v>1.171348635000408</v>
+        <v>1.177508807361574</v>
       </c>
       <c r="E2">
-        <v>0.6103766153312844</v>
+        <v>0.6084958318088399</v>
       </c>
       <c r="F2">
-        <v>0.5867371832995761</v>
+        <v>0.5852816327940494</v>
       </c>
       <c r="G2">
-        <v>0.6808436884481937</v>
+        <v>0.678826866322334</v>
       </c>
       <c r="H2">
-        <v>0.6113415747923366</v>
+        <v>0.6094159519752258</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6134207599418796</v>
+        <v>0.6127678567160914</v>
       </c>
       <c r="C3">
-        <v>0.6384492320418135</v>
+        <v>0.6374184673032106</v>
       </c>
       <c r="D3">
-        <v>1.066070747474406</v>
+        <v>1.087433508580475</v>
       </c>
       <c r="E3">
-        <v>0.6213323702636014</v>
+        <v>0.6202535768303969</v>
       </c>
       <c r="F3">
-        <v>0.6146368189802028</v>
+        <v>0.6139259745853569</v>
       </c>
       <c r="G3">
-        <v>0.6834344996099716</v>
+        <v>0.6839437062193391</v>
       </c>
       <c r="H3">
-        <v>0.6215377872305284</v>
+        <v>0.6205207970795291</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.527488658362904</v>
+        <v>0.5267388280248954</v>
       </c>
       <c r="C4">
-        <v>0.6656639691852426</v>
+        <v>0.6626129769022936</v>
       </c>
       <c r="D4">
-        <v>0.6902789495963499</v>
+        <v>0.7013843045742871</v>
       </c>
       <c r="E4">
-        <v>0.5943080591960613</v>
+        <v>0.5920925721075019</v>
       </c>
       <c r="F4">
-        <v>0.5322764711075562</v>
+        <v>0.5313749586002714</v>
       </c>
       <c r="G4">
-        <v>0.6465004350508846</v>
+        <v>0.6449467475171032</v>
       </c>
       <c r="H4">
-        <v>0.5950527012310313</v>
+        <v>0.5928651984725631</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.6584616284725826</v>
+        <v>0.6573702918581965</v>
       </c>
       <c r="C5">
-        <v>0.720711436062908</v>
+        <v>0.7200122765090208</v>
       </c>
       <c r="D5">
-        <v>0.4215010993672665</v>
+        <v>0.4306945007720887</v>
       </c>
       <c r="E5">
-        <v>0.6418449110788239</v>
+        <v>0.6404928724557114</v>
       </c>
       <c r="F5">
-        <v>0.6573848689675599</v>
+        <v>0.6562369809696084</v>
       </c>
       <c r="G5">
-        <v>0.6856683851356788</v>
+        <v>0.6864429141796565</v>
       </c>
       <c r="H5">
-        <v>0.6414391911669668</v>
+        <v>0.6401494306782807</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6470657544610525</v>
+        <v>0.6459004604667629</v>
       </c>
       <c r="C6">
-        <v>0.7155615851391309</v>
+        <v>0.7144241959553093</v>
       </c>
       <c r="D6">
-        <v>0.306717625328037</v>
+        <v>0.3093899654033974</v>
       </c>
       <c r="E6">
-        <v>0.6378486382047766</v>
+        <v>0.6363875332568553</v>
       </c>
       <c r="F6">
-        <v>0.6464124645109074</v>
+        <v>0.6451873364608633</v>
       </c>
       <c r="G6">
-        <v>0.6669699679740744</v>
+        <v>0.6673089282778126</v>
       </c>
       <c r="H6">
-        <v>0.6374900298291738</v>
+        <v>0.6360887822946704</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.67364116920805</v>
+        <v>0.6728827465569309</v>
       </c>
       <c r="C7">
-        <v>0.7494422126493967</v>
+        <v>0.7489480418434787</v>
       </c>
       <c r="D7">
-        <v>0.3748844675888568</v>
+        <v>0.3842135572168609</v>
       </c>
       <c r="E7">
-        <v>0.6454892669017163</v>
+        <v>0.644483405237085</v>
       </c>
       <c r="F7">
-        <v>0.6722134438460802</v>
+        <v>0.6714093701379333</v>
       </c>
       <c r="G7">
-        <v>0.7039716111796652</v>
+        <v>0.7051670157368789</v>
       </c>
       <c r="H7">
-        <v>0.6450732051148655</v>
+        <v>0.6441383609149771</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6013031496445814</v>
+        <v>0.6002100318368492</v>
       </c>
       <c r="C8">
-        <v>0.4642065922429857</v>
+        <v>0.4597712142751087</v>
       </c>
       <c r="D8">
-        <v>0.2776848453639944</v>
+        <v>0.2819893251920724</v>
       </c>
       <c r="E8">
-        <v>0.5903715414359439</v>
+        <v>0.5876864638500461</v>
       </c>
       <c r="F8">
-        <v>0.5997771752312723</v>
+        <v>0.5986335783223746</v>
       </c>
       <c r="G8">
-        <v>0.4698328281409978</v>
+        <v>0.466464064824418</v>
       </c>
       <c r="H8">
-        <v>0.5899526949008207</v>
+        <v>0.5873098263957595</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,25 +582,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.6801343173412033</v>
+        <v>0.6793750769462492</v>
       </c>
       <c r="C9">
-        <v>0.6789519433980566</v>
+        <v>0.6780164160477735</v>
       </c>
       <c r="D9">
-        <v>0.6507159301449658</v>
+        <v>0.6558191130571009</v>
       </c>
       <c r="E9">
-        <v>0.640728236659171</v>
+        <v>0.63951235732726</v>
       </c>
       <c r="F9">
-        <v>0.6788881243972418</v>
+        <v>0.6780818500958263</v>
       </c>
       <c r="G9">
-        <v>0.6517947161729121</v>
+        <v>0.6519148713952458</v>
       </c>
       <c r="H9">
-        <v>0.6404118552733739</v>
+        <v>0.6392664312515203</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.6886494023625432</v>
+        <v>0.6874373528801301</v>
       </c>
       <c r="C10">
-        <v>0.7376730463218584</v>
+        <v>0.7369860057981762</v>
       </c>
       <c r="D10">
-        <v>0.7183171335656808</v>
+        <v>0.7053690129767466</v>
       </c>
       <c r="E10">
-        <v>0.6464282645344936</v>
+        <v>0.645054067969026</v>
       </c>
       <c r="F10">
-        <v>0.6876670877272409</v>
+        <v>0.6863841418024282</v>
       </c>
       <c r="G10">
-        <v>0.7341472260398691</v>
+        <v>0.7341654369609846</v>
       </c>
       <c r="H10">
-        <v>0.6465219778502527</v>
+        <v>0.6452139183127141</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.682055255013995</v>
+        <v>0.6805110419387205</v>
       </c>
       <c r="C11">
-        <v>0.7393570674768551</v>
+        <v>0.7389962251113296</v>
       </c>
       <c r="D11">
-        <v>0.6245134516545578</v>
+        <v>0.6115985128189595</v>
       </c>
       <c r="E11">
-        <v>0.6469853134626079</v>
+        <v>0.6454288995183227</v>
       </c>
       <c r="F11">
-        <v>0.6810571143280513</v>
+        <v>0.6794344659981938</v>
       </c>
       <c r="G11">
-        <v>0.7300751771682932</v>
+        <v>0.7300701472138008</v>
       </c>
       <c r="H11">
-        <v>0.6469575715967489</v>
+        <v>0.6454645891659274</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,25 +660,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6164198286991209</v>
+        <v>0.6156258578351426</v>
       </c>
       <c r="C12">
-        <v>0.7474316541791274</v>
+        <v>0.7464344466847087</v>
       </c>
       <c r="D12">
-        <v>0.1810847777529358</v>
+        <v>0.1751609156095072</v>
       </c>
       <c r="E12">
-        <v>0.6371532551275879</v>
+        <v>0.6358278061312898</v>
       </c>
       <c r="F12">
-        <v>0.6164974721034235</v>
+        <v>0.6156714985252651</v>
       </c>
       <c r="G12">
-        <v>0.6976650240139889</v>
+        <v>0.6980149801332342</v>
       </c>
       <c r="H12">
-        <v>0.6368763972025974</v>
+        <v>0.6356261515511745</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,25 +686,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.684662499035067</v>
+        <v>0.6837280873050913</v>
       </c>
       <c r="C13">
-        <v>0.7363001299823608</v>
+        <v>0.7356696593475156</v>
       </c>
       <c r="D13">
-        <v>0.5641370150958281</v>
+        <v>0.5463631393984159</v>
       </c>
       <c r="E13">
-        <v>0.645145546732202</v>
+        <v>0.6439606504256168</v>
       </c>
       <c r="F13">
-        <v>0.6835113465677123</v>
+        <v>0.6825026344982311</v>
       </c>
       <c r="G13">
-        <v>0.7240314175441057</v>
+        <v>0.7235535682577257</v>
       </c>
       <c r="H13">
-        <v>0.6451475984510541</v>
+        <v>0.6440407900987742</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middellaag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middellaag.xlsx
@@ -400,25 +400,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5817745553736098</v>
+        <v>0.58792005918047</v>
       </c>
       <c r="C2">
-        <v>0.6247489020384521</v>
+        <v>0.6481152217167628</v>
       </c>
       <c r="D2">
-        <v>1.177508807361574</v>
+        <v>1.313498814969672</v>
       </c>
       <c r="E2">
-        <v>0.6084958318088399</v>
+        <v>0.6176863218124681</v>
       </c>
       <c r="F2">
-        <v>0.5852816327940494</v>
+        <v>0.5914781857011085</v>
       </c>
       <c r="G2">
-        <v>0.678826866322334</v>
+        <v>0.7020990846397795</v>
       </c>
       <c r="H2">
-        <v>0.6094159519752258</v>
+        <v>0.6186420519361094</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6127678567160914</v>
+        <v>0.6195689296840667</v>
       </c>
       <c r="C3">
-        <v>0.6374184673032106</v>
+        <v>0.6614835697473717</v>
       </c>
       <c r="D3">
-        <v>1.087433508580475</v>
+        <v>1.225690816709213</v>
       </c>
       <c r="E3">
-        <v>0.6202535768303969</v>
+        <v>0.6298513683933809</v>
       </c>
       <c r="F3">
-        <v>0.6139259745853569</v>
+        <v>0.620716112768283</v>
       </c>
       <c r="G3">
-        <v>0.6839437062193391</v>
+        <v>0.7079339602863506</v>
       </c>
       <c r="H3">
-        <v>0.6205207970795291</v>
+        <v>0.6301294040625675</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.5267388280248954</v>
+        <v>0.5318206555514727</v>
       </c>
       <c r="C4">
-        <v>0.6626129769022936</v>
+        <v>0.686674897387055</v>
       </c>
       <c r="D4">
-        <v>0.7013843045742871</v>
+        <v>0.7754902945783939</v>
       </c>
       <c r="E4">
-        <v>0.5920925721075019</v>
+        <v>0.6008184859805357</v>
       </c>
       <c r="F4">
-        <v>0.5313749586002714</v>
+        <v>0.5365522613848597</v>
       </c>
       <c r="G4">
-        <v>0.6449467475171032</v>
+        <v>0.6671393909086752</v>
       </c>
       <c r="H4">
-        <v>0.5928651984725631</v>
+        <v>0.6016267990582209</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.6573702918581965</v>
+        <v>0.6651261304297056</v>
       </c>
       <c r="C5">
-        <v>0.7200122765090208</v>
+        <v>0.7474217523297062</v>
       </c>
       <c r="D5">
-        <v>0.4306945007720887</v>
+        <v>0.449441296965801</v>
       </c>
       <c r="E5">
-        <v>0.6404928724557114</v>
+        <v>0.6507913071018955</v>
       </c>
       <c r="F5">
-        <v>0.6562369809696084</v>
+        <v>0.6639177403196133</v>
       </c>
       <c r="G5">
-        <v>0.6864429141796565</v>
+        <v>0.7116557279080611</v>
       </c>
       <c r="H5">
-        <v>0.6401494306782807</v>
+        <v>0.6504375157112866</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6459004604667629</v>
+        <v>0.6534093172196863</v>
       </c>
       <c r="C6">
-        <v>0.7144241959553093</v>
+        <v>0.741508040369947</v>
       </c>
       <c r="D6">
-        <v>0.3093899654033974</v>
+        <v>0.3270940533934479</v>
       </c>
       <c r="E6">
-        <v>0.6363875332568553</v>
+        <v>0.6465461535710778</v>
       </c>
       <c r="F6">
-        <v>0.6451873364608633</v>
+        <v>0.6526352638223126</v>
       </c>
       <c r="G6">
-        <v>0.6673089282778126</v>
+        <v>0.6921269154972672</v>
       </c>
       <c r="H6">
-        <v>0.6360887822946704</v>
+        <v>0.6462407761099619</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.6728827465569309</v>
+        <v>0.6810079994693606</v>
       </c>
       <c r="C7">
-        <v>0.7489480418434787</v>
+        <v>0.7772848066723598</v>
       </c>
       <c r="D7">
-        <v>0.3842135572168609</v>
+        <v>0.4013754906414626</v>
       </c>
       <c r="E7">
-        <v>0.644483405237085</v>
+        <v>0.6549461698890082</v>
       </c>
       <c r="F7">
-        <v>0.6714093701379333</v>
+        <v>0.6794437767110588</v>
       </c>
       <c r="G7">
-        <v>0.7051670157368789</v>
+        <v>0.7311301017741306</v>
       </c>
       <c r="H7">
-        <v>0.6441383609149771</v>
+        <v>0.6545881918591552</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6002100318368492</v>
+        <v>0.6067621287882927</v>
       </c>
       <c r="C8">
-        <v>0.4597712142751087</v>
+        <v>0.4770173116373552</v>
       </c>
       <c r="D8">
-        <v>0.2819893251920724</v>
+        <v>0.2902973021720563</v>
       </c>
       <c r="E8">
-        <v>0.5876864638500461</v>
+        <v>0.5961646260276713</v>
       </c>
       <c r="F8">
-        <v>0.5986335783223746</v>
+        <v>0.6051242423863379</v>
       </c>
       <c r="G8">
-        <v>0.466464064824418</v>
+        <v>0.4825273335458954</v>
       </c>
       <c r="H8">
-        <v>0.5873098263957595</v>
+        <v>0.5957902921233157</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,25 +582,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.6793750769462492</v>
+        <v>0.687597352504432</v>
       </c>
       <c r="C9">
-        <v>0.6780164160477735</v>
+        <v>0.7037044247573736</v>
       </c>
       <c r="D9">
-        <v>0.6558191130571009</v>
+        <v>0.688065013977329</v>
       </c>
       <c r="E9">
-        <v>0.63951235732726</v>
+        <v>0.6497804739386871</v>
       </c>
       <c r="F9">
-        <v>0.6780818500958263</v>
+        <v>0.6862152739235847</v>
       </c>
       <c r="G9">
-        <v>0.6519148713952458</v>
+        <v>0.6760054899001348</v>
       </c>
       <c r="H9">
-        <v>0.6392664312515203</v>
+        <v>0.6495261151428007</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.6874373528801301</v>
+        <v>0.6962885743215873</v>
       </c>
       <c r="C10">
-        <v>0.7369860057981762</v>
+        <v>0.7646709075939094</v>
       </c>
       <c r="D10">
-        <v>0.7053690129767466</v>
+        <v>0.793999102161678</v>
       </c>
       <c r="E10">
-        <v>0.645054067969026</v>
+        <v>0.6557084768085584</v>
       </c>
       <c r="F10">
-        <v>0.6863841418024282</v>
+        <v>0.6951162783554444</v>
       </c>
       <c r="G10">
-        <v>0.7341654369609846</v>
+        <v>0.7598594951260311</v>
       </c>
       <c r="H10">
-        <v>0.6452139183127141</v>
+        <v>0.6558522342525583</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.6805110419387205</v>
+        <v>0.6892710809081366</v>
       </c>
       <c r="C11">
-        <v>0.7389962251113296</v>
+        <v>0.7666761451581852</v>
       </c>
       <c r="D11">
-        <v>0.6115985128189595</v>
+        <v>0.6895836588783807</v>
       </c>
       <c r="E11">
-        <v>0.6454288995183227</v>
+        <v>0.6560590397357804</v>
       </c>
       <c r="F11">
-        <v>0.6794344659981938</v>
+        <v>0.6880779658990894</v>
       </c>
       <c r="G11">
-        <v>0.7300701472138008</v>
+        <v>0.7556771256224231</v>
       </c>
       <c r="H11">
-        <v>0.6454645891659274</v>
+        <v>0.6560788917135243</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,25 +660,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6156258578351426</v>
+        <v>0.6241881254001516</v>
       </c>
       <c r="C12">
-        <v>0.7464344466847087</v>
+        <v>0.7745554222486973</v>
       </c>
       <c r="D12">
-        <v>0.1751609156095072</v>
+        <v>0.1984769673372521</v>
       </c>
       <c r="E12">
-        <v>0.6358278061312898</v>
+        <v>0.6464965173239271</v>
       </c>
       <c r="F12">
-        <v>0.6156714985252651</v>
+        <v>0.6241101731037968</v>
       </c>
       <c r="G12">
-        <v>0.6980149801332342</v>
+        <v>0.7231763437576213</v>
       </c>
       <c r="H12">
-        <v>0.6356261515511745</v>
+        <v>0.6462765158710355</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,25 +686,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.6837280873050913</v>
+        <v>0.6925478065089196</v>
       </c>
       <c r="C13">
-        <v>0.7356696593475156</v>
+        <v>0.76333231959312</v>
       </c>
       <c r="D13">
-        <v>0.5463631393984159</v>
+        <v>0.6163823604628738</v>
       </c>
       <c r="E13">
-        <v>0.6439606504256168</v>
+        <v>0.6546031863939528</v>
       </c>
       <c r="F13">
-        <v>0.6825026344982311</v>
+        <v>0.6912035447731096</v>
       </c>
       <c r="G13">
-        <v>0.7235535682577257</v>
+        <v>0.7490676502734643</v>
       </c>
       <c r="H13">
-        <v>0.6440407900987742</v>
+        <v>0.6546671971422592</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middellaag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middellaag.xlsx
@@ -400,7 +400,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.58792005918047</v>
+        <v>0.5879200591804699</v>
       </c>
       <c r="C2">
         <v>0.6481152217167628</v>
@@ -412,10 +412,10 @@
         <v>0.6176863218124681</v>
       </c>
       <c r="F2">
-        <v>0.5914781857011085</v>
+        <v>0.5914781857011084</v>
       </c>
       <c r="G2">
-        <v>0.7020990846397795</v>
+        <v>0.7020990846397797</v>
       </c>
       <c r="H2">
         <v>0.6186420519361094</v>
@@ -429,7 +429,7 @@
         <v>0.6195689296840667</v>
       </c>
       <c r="C3">
-        <v>0.6614835697473717</v>
+        <v>0.6614835697473718</v>
       </c>
       <c r="D3">
         <v>1.225690816709213</v>
@@ -441,10 +441,10 @@
         <v>0.620716112768283</v>
       </c>
       <c r="G3">
-        <v>0.7079339602863506</v>
+        <v>0.7079339602863507</v>
       </c>
       <c r="H3">
-        <v>0.6301294040625675</v>
+        <v>0.6301294040625673</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,10 +478,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.6651261304297056</v>
+        <v>0.6651261304297055</v>
       </c>
       <c r="C5">
-        <v>0.7474217523297062</v>
+        <v>0.7474217523297063</v>
       </c>
       <c r="D5">
         <v>0.449441296965801</v>
@@ -490,10 +490,10 @@
         <v>0.6507913071018955</v>
       </c>
       <c r="F5">
-        <v>0.6639177403196133</v>
+        <v>0.6639177403196131</v>
       </c>
       <c r="G5">
-        <v>0.7116557279080611</v>
+        <v>0.7116557279080613</v>
       </c>
       <c r="H5">
         <v>0.6504375157112866</v>
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6534093172196863</v>
+        <v>0.6534093172196862</v>
       </c>
       <c r="C6">
         <v>0.741508040369947</v>
@@ -516,13 +516,13 @@
         <v>0.6465461535710778</v>
       </c>
       <c r="F6">
-        <v>0.6526352638223126</v>
+        <v>0.6526352638223125</v>
       </c>
       <c r="G6">
-        <v>0.6921269154972672</v>
+        <v>0.6921269154972673</v>
       </c>
       <c r="H6">
-        <v>0.6462407761099619</v>
+        <v>0.6462407761099618</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,10 +530,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.6810079994693606</v>
+        <v>0.6810079994693605</v>
       </c>
       <c r="C7">
-        <v>0.7772848066723598</v>
+        <v>0.77728480667236</v>
       </c>
       <c r="D7">
         <v>0.4013754906414626</v>
@@ -542,13 +542,13 @@
         <v>0.6549461698890082</v>
       </c>
       <c r="F7">
-        <v>0.6794437767110588</v>
+        <v>0.6794437767110587</v>
       </c>
       <c r="G7">
         <v>0.7311301017741306</v>
       </c>
       <c r="H7">
-        <v>0.6545881918591552</v>
+        <v>0.6545881918591551</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,10 +556,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6067621287882927</v>
+        <v>0.6067621287882924</v>
       </c>
       <c r="C8">
-        <v>0.4770173116373552</v>
+        <v>0.4770173116373553</v>
       </c>
       <c r="D8">
         <v>0.2902973021720563</v>
@@ -571,7 +571,7 @@
         <v>0.6051242423863379</v>
       </c>
       <c r="G8">
-        <v>0.4825273335458954</v>
+        <v>0.4825273335458955</v>
       </c>
       <c r="H8">
         <v>0.5957902921233157</v>
@@ -597,7 +597,7 @@
         <v>0.6862152739235847</v>
       </c>
       <c r="G9">
-        <v>0.6760054899001348</v>
+        <v>0.6760054899001349</v>
       </c>
       <c r="H9">
         <v>0.6495261151428007</v>
@@ -608,10 +608,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.6962885743215873</v>
+        <v>0.6962885743215872</v>
       </c>
       <c r="C10">
-        <v>0.7646709075939094</v>
+        <v>0.7646709075939097</v>
       </c>
       <c r="D10">
         <v>0.793999102161678</v>
@@ -623,10 +623,10 @@
         <v>0.6951162783554444</v>
       </c>
       <c r="G10">
-        <v>0.7598594951260311</v>
+        <v>0.7598594951260313</v>
       </c>
       <c r="H10">
-        <v>0.6558522342525583</v>
+        <v>0.6558522342525581</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,7 +634,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.6892710809081366</v>
+        <v>0.6892710809081365</v>
       </c>
       <c r="C11">
         <v>0.7666761451581852</v>
@@ -649,10 +649,10 @@
         <v>0.6880779658990894</v>
       </c>
       <c r="G11">
-        <v>0.7556771256224231</v>
+        <v>0.7556771256224232</v>
       </c>
       <c r="H11">
-        <v>0.6560788917135243</v>
+        <v>0.6560788917135241</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,10 +660,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6241881254001516</v>
+        <v>0.6241881254001515</v>
       </c>
       <c r="C12">
-        <v>0.7745554222486973</v>
+        <v>0.7745554222486974</v>
       </c>
       <c r="D12">
         <v>0.1984769673372521</v>
@@ -675,7 +675,7 @@
         <v>0.6241101731037968</v>
       </c>
       <c r="G12">
-        <v>0.7231763437576213</v>
+        <v>0.7231763437576214</v>
       </c>
       <c r="H12">
         <v>0.6462765158710355</v>
@@ -701,7 +701,7 @@
         <v>0.6912035447731096</v>
       </c>
       <c r="G13">
-        <v>0.7490676502734643</v>
+        <v>0.7490676502734644</v>
       </c>
       <c r="H13">
         <v>0.6546671971422592</v>
